--- a/HormonesSchedule.xlsx
+++ b/HormonesSchedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Day</t>
   </si>
@@ -134,21 +134,46 @@
     <t>2025-01-10</t>
   </si>
   <si>
+    <t>5
+10
+3</t>
+  </si>
+  <si>
     <t>2025-01-11</t>
   </si>
   <si>
+    <t>5
+10
+2</t>
+  </si>
+  <si>
     <t>2025-01-12</t>
   </si>
   <si>
+    <t>6
+12
+1</t>
+  </si>
+  <si>
     <t>2025-01-13</t>
   </si>
   <si>
     <t>2025-01-14</t>
   </si>
   <si>
+    <t>6
+14
+1</t>
+  </si>
+  <si>
     <t>2025-01-15</t>
   </si>
   <si>
+    <t>6
+16
+1</t>
+  </si>
+  <si>
     <t>2025-01-16</t>
   </si>
   <si>
@@ -161,10 +186,20 @@
     <t>2025-01-19</t>
   </si>
   <si>
+    <t>6
+10
+1</t>
+  </si>
+  <si>
     <t>2025-01-20</t>
   </si>
   <si>
     <t>2025-01-21</t>
+  </si>
+  <si>
+    <t>6
+6
+1</t>
   </si>
   <si>
     <t>2025-01-22</t>
@@ -766,8 +801,8 @@
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D17" t="s">
-        <v>8</v>
+      <c r="D17" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -778,13 +813,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D18" t="s">
-        <v>8</v>
+      <c r="D18" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -795,13 +830,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D19" t="s">
-        <v>8</v>
+      <c r="D19" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -812,13 +847,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D20" t="s">
-        <v>8</v>
+      <c r="D20" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -829,13 +864,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D21" t="s">
-        <v>8</v>
+      <c r="D21" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -846,13 +881,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D22" t="s">
-        <v>8</v>
+      <c r="D22" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
@@ -863,13 +898,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D23" t="s">
-        <v>8</v>
+      <c r="D23" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
@@ -880,13 +915,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D24" t="s">
-        <v>8</v>
+      <c r="D24" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
@@ -897,13 +932,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D25" t="s">
-        <v>8</v>
+      <c r="D25" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
@@ -914,13 +949,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D26" t="s">
-        <v>8</v>
+      <c r="D26" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
@@ -931,13 +966,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D27" t="s">
-        <v>8</v>
+      <c r="D27" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
@@ -948,13 +983,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D28" t="s">
-        <v>8</v>
+      <c r="D28" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
@@ -965,13 +1000,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D29" t="s">
-        <v>8</v>
+      <c r="D29" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>

--- a/HormonesSchedule.xlsx
+++ b/HormonesSchedule.xlsx
@@ -31,7 +31,7 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>2024-12-26</t>
+    <t>2025-01-14</t>
   </si>
   <si>
     <r>
@@ -63,59 +63,59 @@
     <t/>
   </si>
   <si>
-    <t>2024-12-27</t>
-  </si>
-  <si>
-    <t>2024-12-28</t>
-  </si>
-  <si>
-    <t>2024-12-29</t>
-  </si>
-  <si>
-    <t>2024-12-30</t>
-  </si>
-  <si>
-    <t>2024-12-31</t>
+    <t>2025-01-15</t>
+  </si>
+  <si>
+    <t>2025-01-16</t>
+  </si>
+  <si>
+    <t>2025-01-17</t>
+  </si>
+  <si>
+    <t>2025-01-18</t>
+  </si>
+  <si>
+    <t>2025-01-19</t>
   </si>
   <si>
     <t>8
 1</t>
   </si>
   <si>
-    <t>2025-01-01</t>
-  </si>
-  <si>
-    <t>2025-01-02</t>
-  </si>
-  <si>
-    <t>2025-01-03</t>
+    <t>2025-01-20</t>
+  </si>
+  <si>
+    <t>2025-01-21</t>
+  </si>
+  <si>
+    <t>2025-01-22</t>
   </si>
   <si>
     <t>9
 1</t>
   </si>
   <si>
-    <t>2025-01-04</t>
-  </si>
-  <si>
-    <t>2025-01-05</t>
-  </si>
-  <si>
-    <t>2025-01-06</t>
+    <t>2025-01-23</t>
+  </si>
+  <si>
+    <t>2025-01-24</t>
+  </si>
+  <si>
+    <t>2025-01-25</t>
   </si>
   <si>
     <t>10
 1</t>
   </si>
   <si>
-    <t>2025-01-07</t>
+    <t>2025-01-26</t>
   </si>
   <si>
     <t>4
 2</t>
   </si>
   <si>
-    <t>2025-01-08</t>
+    <t>2025-01-27</t>
   </si>
   <si>
     <t>4
@@ -123,7 +123,7 @@
 3</t>
   </si>
   <si>
-    <t>2025-01-09</t>
+    <t>2025-01-28</t>
   </si>
   <si>
     <t>5
@@ -131,7 +131,7 @@
 4</t>
   </si>
   <si>
-    <t>2025-01-10</t>
+    <t>2025-01-29</t>
   </si>
   <si>
     <t>5
@@ -139,7 +139,7 @@
 3</t>
   </si>
   <si>
-    <t>2025-01-11</t>
+    <t>2025-01-30</t>
   </si>
   <si>
     <t>5
@@ -147,7 +147,7 @@
 2</t>
   </si>
   <si>
-    <t>2025-01-12</t>
+    <t>2025-01-31</t>
   </si>
   <si>
     <t>6
@@ -155,10 +155,10 @@
 1</t>
   </si>
   <si>
-    <t>2025-01-13</t>
-  </si>
-  <si>
-    <t>2025-01-14</t>
+    <t>2025-02-01</t>
+  </si>
+  <si>
+    <t>2025-02-02</t>
   </si>
   <si>
     <t>6
@@ -166,7 +166,7 @@
 1</t>
   </si>
   <si>
-    <t>2025-01-15</t>
+    <t>2025-02-03</t>
   </si>
   <si>
     <t>6
@@ -174,16 +174,16 @@
 1</t>
   </si>
   <si>
-    <t>2025-01-16</t>
-  </si>
-  <si>
-    <t>2025-01-17</t>
-  </si>
-  <si>
-    <t>2025-01-18</t>
-  </si>
-  <si>
-    <t>2025-01-19</t>
+    <t>2025-02-04</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>2025-02-06</t>
+  </si>
+  <si>
+    <t>2025-02-07</t>
   </si>
   <si>
     <t>6
@@ -191,10 +191,10 @@
 1</t>
   </si>
   <si>
-    <t>2025-01-20</t>
-  </si>
-  <si>
-    <t>2025-01-21</t>
+    <t>2025-02-08</t>
+  </si>
+  <si>
+    <t>2025-02-09</t>
   </si>
   <si>
     <t>6
@@ -202,7 +202,7 @@
 1</t>
   </si>
   <si>
-    <t>2025-01-22</t>
+    <t>2025-02-10</t>
   </si>
 </sst>
 </file>
